--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\日报填写工具\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34942340-331D-4A2F-A25D-AB6525811375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DE9711-8F37-4A85-B6C6-4B280C8FAA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="708">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4253,6 +4253,19 @@
   </si>
   <si>
     <t>实现基于财务共享4.0的影像系统接口公共组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现EBS项目预算填报场景修改预算日期。
+实现EBS项目预算填报场景新增预算与修改预算操作。
+实现EBS项目预算填报场景关闭所有窗口操作。
+实现EBS项目预算填报场景提交审批操作。
+将EBS项目预算填报场景操作分段组合并测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论EBS项目预算填报场景数据源问题。
+根据EBS项目预算填报场景数据源设计整理流程并组合操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4848,6 +4861,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4857,10 +4876,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4889,12 +4908,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5178,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="D486" sqref="D486"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="D488" sqref="D488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5229,19 +5242,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5303,19 +5316,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5374,18 +5387,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5443,18 +5456,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5512,18 +5525,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5581,18 +5594,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5650,18 +5663,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5719,18 +5732,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5788,18 +5801,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5846,18 +5859,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5915,18 +5928,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -5981,18 +5994,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6066,18 +6079,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6135,18 +6148,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6204,18 +6217,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6273,18 +6286,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6342,18 +6355,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="37"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6411,18 +6424,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="37"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6480,18 +6493,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="37"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6549,16 +6562,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6616,16 +6629,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6683,16 +6696,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6750,16 +6763,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6817,16 +6830,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6873,16 +6886,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6940,16 +6953,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7004,16 +7017,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7093,16 +7106,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="37"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7160,16 +7173,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7227,16 +7240,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="37"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="36"/>
-      <c r="D212" s="37"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7294,18 +7307,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="37"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="37"/>
+      <c r="D219" s="34"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7363,18 +7376,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="37"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="37"/>
+      <c r="D226" s="34"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7432,18 +7445,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="37"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="37"/>
+      <c r="D233" s="34"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7501,18 +7514,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="37"/>
+      <c r="D240" s="34"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7567,18 +7580,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="37"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="37"/>
+      <c r="D247" s="34"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7636,18 +7649,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="37"/>
+      <c r="D254" s="34"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7702,18 +7715,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="37"/>
+      <c r="D261" s="34"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7771,18 +7784,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="37"/>
+      <c r="D268" s="34"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7837,18 +7850,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="37"/>
+      <c r="D275" s="34"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7917,18 +7930,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="37"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="37"/>
+      <c r="D283" s="34"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7964,18 +7977,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="37"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="37"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8033,18 +8046,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="37"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="37"/>
+      <c r="D295" s="34"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8102,18 +8115,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="37"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="37"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8168,18 +8181,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="37"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="37"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8237,18 +8250,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="37"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8306,18 +8319,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="37"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="37"/>
+      <c r="D323" s="34"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8375,18 +8388,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="37"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="37"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8422,18 +8435,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="37"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="37"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8499,18 +8512,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="37"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="37"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8568,18 +8581,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="37"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="37"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8637,18 +8650,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="37"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="37"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8706,18 +8719,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="37"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8775,18 +8788,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="37"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="37"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8844,18 +8857,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="37"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="37"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8913,18 +8926,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="37"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="37"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -8982,18 +8995,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="37"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9051,18 +9064,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="37"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="37"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9120,18 +9133,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="35"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="37"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9189,18 +9202,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="36" t="s">
+      <c r="C413" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="37"/>
+      <c r="D413" s="34"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9258,18 +9271,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="37"/>
+      <c r="D420" s="34"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9327,18 +9340,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="37"/>
+      <c r="D427" s="34"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9385,18 +9398,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="37"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="37"/>
+      <c r="D433" s="34"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9476,18 +9489,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="37"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36" t="s">
+      <c r="C442" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="37"/>
+      <c r="D442" s="34"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9545,18 +9558,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="37"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="37"/>
+      <c r="D449" s="34"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9614,18 +9627,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="37"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36" t="s">
+      <c r="C456" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="37"/>
+      <c r="D456" s="34"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9683,18 +9696,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="35"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="37"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="37"/>
+      <c r="D463" s="34"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9752,18 +9765,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="35"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36" t="s">
+      <c r="C470" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="37"/>
+      <c r="D470" s="34"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9821,18 +9834,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="35"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="37"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="C477" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="37"/>
+      <c r="D477" s="34"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9890,18 +9903,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="35"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="37"/>
+      <c r="D484" s="34"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -9936,9 +9949,15 @@
         <v>704</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B488" s="16">
         <v>45260</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="D488" s="8" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="489" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -9947,16 +9966,16 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="33"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="35"/>
+      <c r="B490" s="35"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="37"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="36"/>
-      <c r="D491" s="37"/>
+      <c r="C491" s="33"/>
+      <c r="D491" s="34"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -9965,6 +9984,122 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
@@ -9989,122 +10124,6 @@
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="B322:D322"/>
     <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DE9711-8F37-4A85-B6C6-4B280C8FAA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E1177-238A-4175-9123-01870E82CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="709">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4256,16 +4256,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>讨论EBS项目预算填报场景数据源问题。
+根据EBS项目预算填报场景数据源设计整理流程并组合操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>实现EBS项目预算填报场景修改预算日期。
 实现EBS项目预算填报场景新增预算与修改预算操作。
 实现EBS项目预算填报场景关闭所有窗口操作。
 实现EBS项目预算填报场景提交审批操作。
-将EBS项目预算填报场景操作分段组合并测试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论EBS项目预算填报场景数据源问题。
-根据EBS项目预算填报场景数据源设计整理流程并组合操作。</t>
+将EBS项目预算填报场景操作分段组合并测试。
+修复税费计提场景增值税附加与水利资源税的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看银行对账场景问题。
+发票勾选认证场景优化国税系统白屏时的刷新操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4861,12 +4867,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4876,10 +4876,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4908,6 +4908,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5192,7 +5198,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="D488" sqref="D488"/>
+      <selection activeCell="C489" sqref="C489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5242,19 +5248,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5316,19 +5322,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5387,18 +5393,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5456,18 +5462,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5525,18 +5531,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5594,18 +5600,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5663,18 +5669,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5732,18 +5738,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5801,18 +5807,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5859,18 +5865,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5928,18 +5934,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -5994,18 +6000,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6079,18 +6085,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="34"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6148,18 +6154,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6217,18 +6223,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="37"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6286,18 +6292,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="37"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6355,18 +6361,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="37"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6424,18 +6430,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6493,18 +6499,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="34"/>
+      <c r="D134" s="37"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6562,16 +6568,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="34"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6629,16 +6635,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6696,16 +6702,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="37"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6763,16 +6769,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="37"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6830,16 +6836,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="37"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6886,16 +6892,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="35"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="37"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6953,16 +6959,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="35"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="34"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7017,16 +7023,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7106,16 +7112,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="35"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="37"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="35"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="37"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7173,16 +7179,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="35"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="37"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="34"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7240,16 +7246,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="37"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="34"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="37"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7307,18 +7313,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="35"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="37"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="34"/>
+      <c r="D219" s="37"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7376,18 +7382,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="35"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="37"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="35"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="34"/>
+      <c r="D226" s="37"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7445,18 +7451,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="35"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="37"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="33" t="s">
+      <c r="C233" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="34"/>
+      <c r="D233" s="37"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7514,18 +7520,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="35"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="37"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="34"/>
+      <c r="D240" s="37"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7580,18 +7586,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="35"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="37"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="35"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C247" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="34"/>
+      <c r="D247" s="37"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7649,18 +7655,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="35"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="33" t="s">
+      <c r="C254" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="34"/>
+      <c r="D254" s="37"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7715,18 +7721,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="35"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="37"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="35"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="33" t="s">
+      <c r="C261" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="34"/>
+      <c r="D261" s="37"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7784,18 +7790,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="35"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="37"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="35"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="34"/>
+      <c r="D268" s="37"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7850,18 +7856,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="35"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="37"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="35"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C275" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="34"/>
+      <c r="D275" s="37"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7930,18 +7936,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="35"/>
-      <c r="C282" s="36"/>
-      <c r="D282" s="37"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="35"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="34"/>
+      <c r="D283" s="37"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7977,18 +7983,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="35"/>
-      <c r="C287" s="36"/>
-      <c r="D287" s="37"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="35"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="34"/>
+      <c r="D288" s="37"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8046,18 +8052,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="35"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="37"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="35"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="34"/>
+      <c r="D295" s="37"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8115,18 +8121,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="35"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="37"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="35"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="33" t="s">
+      <c r="C302" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="34"/>
+      <c r="D302" s="37"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8181,18 +8187,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="35"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="37"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="35"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="34"/>
+      <c r="D309" s="37"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8250,18 +8256,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="35"/>
-      <c r="C315" s="36"/>
-      <c r="D315" s="37"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="34"/>
+      <c r="D315" s="35"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="34"/>
+      <c r="D316" s="37"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8319,18 +8325,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="35"/>
-      <c r="C322" s="36"/>
-      <c r="D322" s="37"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="35"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="33" t="s">
+      <c r="C323" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="34"/>
+      <c r="D323" s="37"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8388,18 +8394,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="35"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="37"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="34"/>
+      <c r="D329" s="35"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="33" t="s">
+      <c r="C330" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="34"/>
+      <c r="D330" s="37"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8435,18 +8441,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="35"/>
-      <c r="C334" s="36"/>
-      <c r="D334" s="37"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="35"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="33" t="s">
+      <c r="C335" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="34"/>
+      <c r="D335" s="37"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8512,18 +8518,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="35"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="37"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="34"/>
+      <c r="D342" s="35"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="33" t="s">
+      <c r="C343" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="34"/>
+      <c r="D343" s="37"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8581,18 +8587,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="35"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="37"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="34"/>
+      <c r="D349" s="35"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="33" t="s">
+      <c r="C350" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="34"/>
+      <c r="D350" s="37"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8650,18 +8656,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="35"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="37"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="35"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="33" t="s">
+      <c r="C357" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="34"/>
+      <c r="D357" s="37"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8719,18 +8725,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="35"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="37"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="35"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="33" t="s">
+      <c r="C364" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="34"/>
+      <c r="D364" s="37"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8788,18 +8794,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="35"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="37"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="35"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="33" t="s">
+      <c r="C371" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="34"/>
+      <c r="D371" s="37"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8857,18 +8863,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="35"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="37"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="35"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="33" t="s">
+      <c r="C378" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="34"/>
+      <c r="D378" s="37"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8926,18 +8932,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="35"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="37"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="35"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="33" t="s">
+      <c r="C385" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="34"/>
+      <c r="D385" s="37"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -8995,18 +9001,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="35"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="37"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="35"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="33" t="s">
+      <c r="C392" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="34"/>
+      <c r="D392" s="37"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9064,18 +9070,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="35"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="37"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="34"/>
+      <c r="D398" s="35"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="33" t="s">
+      <c r="C399" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="34"/>
+      <c r="D399" s="37"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9133,18 +9139,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="35"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="37"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="34"/>
+      <c r="D405" s="35"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9202,18 +9208,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="35"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="37"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="34"/>
+      <c r="D412" s="35"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="33" t="s">
+      <c r="C413" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="34"/>
+      <c r="D413" s="37"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9271,18 +9277,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="35"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="37"/>
+      <c r="B419" s="33"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="33" t="s">
+      <c r="C420" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="34"/>
+      <c r="D420" s="37"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9340,18 +9346,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="35"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="37"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="33" t="s">
+      <c r="C427" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="34"/>
+      <c r="D427" s="37"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9398,18 +9404,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="35"/>
-      <c r="C432" s="36"/>
-      <c r="D432" s="37"/>
+      <c r="B432" s="33"/>
+      <c r="C432" s="34"/>
+      <c r="D432" s="35"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="33" t="s">
+      <c r="C433" s="36" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="34"/>
+      <c r="D433" s="37"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9489,18 +9495,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="35"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="37"/>
+      <c r="B441" s="33"/>
+      <c r="C441" s="34"/>
+      <c r="D441" s="35"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="33" t="s">
+      <c r="C442" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="34"/>
+      <c r="D442" s="37"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9558,18 +9564,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="35"/>
-      <c r="C448" s="36"/>
-      <c r="D448" s="37"/>
+      <c r="B448" s="33"/>
+      <c r="C448" s="34"/>
+      <c r="D448" s="35"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="34"/>
+      <c r="D449" s="37"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9627,18 +9633,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="35"/>
-      <c r="C455" s="36"/>
-      <c r="D455" s="37"/>
+      <c r="B455" s="33"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="35"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="33" t="s">
+      <c r="C456" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="34"/>
+      <c r="D456" s="37"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9696,18 +9702,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="35"/>
-      <c r="C462" s="36"/>
-      <c r="D462" s="37"/>
+      <c r="B462" s="33"/>
+      <c r="C462" s="34"/>
+      <c r="D462" s="35"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="33" t="s">
+      <c r="C463" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="34"/>
+      <c r="D463" s="37"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9765,18 +9771,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="35"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="37"/>
+      <c r="B469" s="33"/>
+      <c r="C469" s="34"/>
+      <c r="D469" s="35"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="33" t="s">
+      <c r="C470" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="34"/>
+      <c r="D470" s="37"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9834,18 +9840,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="35"/>
-      <c r="C476" s="36"/>
-      <c r="D476" s="37"/>
+      <c r="B476" s="33"/>
+      <c r="C476" s="34"/>
+      <c r="D476" s="35"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="33" t="s">
+      <c r="C477" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="34"/>
+      <c r="D477" s="37"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9903,18 +9909,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="35"/>
-      <c r="C483" s="36"/>
-      <c r="D483" s="37"/>
+      <c r="B483" s="33"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="35"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="33" t="s">
+      <c r="C484" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="34"/>
+      <c r="D484" s="37"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -9949,33 +9955,36 @@
         <v>704</v>
       </c>
     </row>
-    <row r="488" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B488" s="16">
         <v>45260</v>
       </c>
       <c r="C488" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D488" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="D488" s="8" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="489" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B489" s="16">
         <v>45261</v>
       </c>
+      <c r="C489" s="7" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="35"/>
-      <c r="C490" s="36"/>
-      <c r="D490" s="37"/>
+      <c r="B490" s="33"/>
+      <c r="C490" s="34"/>
+      <c r="D490" s="35"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="33"/>
-      <c r="D491" s="34"/>
+      <c r="C491" s="36"/>
+      <c r="D491" s="37"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -9984,16 +9993,112 @@
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="B455:D455"/>
     <mergeCell ref="C456:D456"/>
     <mergeCell ref="B363:D363"/>
@@ -10018,112 +10123,16 @@
     <mergeCell ref="C427:D427"/>
     <mergeCell ref="B391:D391"/>
     <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E1177-238A-4175-9123-01870E82CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D058C-4921-4867-B860-FCAF220D1E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="710">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4272,6 +4272,10 @@
   <si>
     <t>查看银行对账场景问题。
 发票勾选认证场景优化国税系统白屏时的刷新操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论设计EBS项目预算填报场景数据源处理流程。基于财务共享4.0调整脚本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4867,6 +4871,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4876,10 +4886,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4908,12 +4918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5197,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="C489" sqref="C489"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="I474" sqref="I474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5248,19 +5252,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5322,19 +5326,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5393,18 +5397,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5462,18 +5466,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5531,18 +5535,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5600,18 +5604,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5669,18 +5673,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5738,18 +5742,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5807,18 +5811,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5865,18 +5869,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5934,18 +5938,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -6000,18 +6004,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6085,18 +6089,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6154,18 +6158,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6223,18 +6227,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6292,18 +6296,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6361,18 +6365,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="37"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6430,18 +6434,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="37"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6499,18 +6503,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="37"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6568,16 +6572,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6635,16 +6639,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6702,16 +6706,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6769,16 +6773,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6836,16 +6840,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6892,16 +6896,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6959,16 +6963,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7023,16 +7027,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7112,16 +7116,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="37"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7179,16 +7183,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7246,16 +7250,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="37"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="36"/>
-      <c r="D212" s="37"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7313,18 +7317,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="37"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="37"/>
+      <c r="D219" s="34"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7382,18 +7386,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="37"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="37"/>
+      <c r="D226" s="34"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7451,18 +7455,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="37"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="37"/>
+      <c r="D233" s="34"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7520,18 +7524,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="37"/>
+      <c r="D240" s="34"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7586,18 +7590,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="37"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="37"/>
+      <c r="D247" s="34"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7655,18 +7659,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="37"/>
+      <c r="D254" s="34"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7721,18 +7725,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="37"/>
+      <c r="D261" s="34"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7790,18 +7794,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="37"/>
+      <c r="D268" s="34"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7856,18 +7860,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="37"/>
+      <c r="D275" s="34"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7936,18 +7940,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="37"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="37"/>
+      <c r="D283" s="34"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7983,18 +7987,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="37"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="37"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8052,18 +8056,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="37"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="37"/>
+      <c r="D295" s="34"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8121,18 +8125,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="37"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="37"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8187,18 +8191,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="37"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="37"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8256,18 +8260,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="37"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8325,18 +8329,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="37"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="37"/>
+      <c r="D323" s="34"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8394,18 +8398,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="37"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="37"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8441,18 +8445,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="37"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="37"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8518,18 +8522,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="37"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="37"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8587,18 +8591,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="37"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="37"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8656,18 +8660,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="37"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="37"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8725,18 +8729,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="37"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8794,18 +8798,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="37"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="37"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8863,18 +8867,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="37"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="37"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8932,18 +8936,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="37"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="37"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -9001,18 +9005,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="37"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9070,18 +9074,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="37"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="37"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9139,18 +9143,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="35"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="37"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9208,18 +9212,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="36" t="s">
+      <c r="C413" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="37"/>
+      <c r="D413" s="34"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9277,18 +9281,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="37"/>
+      <c r="D420" s="34"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9346,18 +9350,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="37"/>
+      <c r="D427" s="34"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9404,18 +9408,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="37"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="37"/>
+      <c r="D433" s="34"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9495,18 +9499,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="37"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36" t="s">
+      <c r="C442" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="37"/>
+      <c r="D442" s="34"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9564,18 +9568,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="37"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="37"/>
+      <c r="D449" s="34"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9633,18 +9637,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="37"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36" t="s">
+      <c r="C456" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="37"/>
+      <c r="D456" s="34"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9702,18 +9706,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="35"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="37"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="37"/>
+      <c r="D463" s="34"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9771,18 +9775,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="35"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36" t="s">
+      <c r="C470" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="37"/>
+      <c r="D470" s="34"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9840,18 +9844,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="35"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="37"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="C477" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="37"/>
+      <c r="D477" s="34"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9909,18 +9913,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="35"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="37"/>
+      <c r="D484" s="34"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -9975,16 +9979,18 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="33"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="35"/>
+      <c r="B490" s="35"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="37"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="36"/>
-      <c r="D491" s="37"/>
+      <c r="C491" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="D491" s="34"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -9993,6 +9999,122 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
@@ -10017,122 +10139,6 @@
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="B322:D322"/>
     <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D058C-4921-4867-B860-FCAF220D1E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A33AA35-2F6C-4425-83A9-40689A5FAB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="711">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4270,12 +4270,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>讨论设计EBS项目预算填报场景数据源处理流程。基于财务共享4.0调整脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用户讨论设计EBS项目预算填报场景数据源处理流程。
+实现EBS项目预算填报场景。
+基于财务共享4.0调整脚本。
+在乌沙山那边的申请流程结束后，中台数据场景新增数据，上线经信网取数场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>查看银行对账场景问题。
-发票勾选认证场景优化国税系统白屏时的刷新操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论设计EBS项目预算填报场景数据源处理流程。基于财务共享4.0调整脚本。</t>
+发票勾选认证场景优化国税系统白屏时的刷新操作。
+整理代码。
+梳理脚本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5199,10 +5208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="I474" sqref="I474"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="C498" sqref="C498:D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9970,12 +9979,15 @@
         <v>706</v>
       </c>
     </row>
-    <row r="489" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B489" s="16">
         <v>45261</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
+      </c>
+      <c r="D489" s="8" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -9988,7 +10000,7 @@
         <v>18</v>
       </c>
       <c r="C491" s="33" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D491" s="34"/>
     </row>
@@ -9997,8 +10009,47 @@
         <v>45264</v>
       </c>
     </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B493" s="16">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B494" s="16">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B495" s="16">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="16">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="35"/>
+      <c r="C497" s="36"/>
+      <c r="D497" s="37"/>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B498" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C498" s="33"/>
+      <c r="D498" s="34"/>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B499" s="16">
+        <v>45271</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="142">
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
     <mergeCell ref="B490:D490"/>
     <mergeCell ref="C491:D491"/>
     <mergeCell ref="B483:D483"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A33AA35-2F6C-4425-83A9-40689A5FAB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CF62E-08EF-4F28-A9B8-7225125576CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="722">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4270,10 +4270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讨论设计EBS项目预算填报场景数据源处理流程。基于财务共享4.0调整脚本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与用户讨论设计EBS项目预算填报场景数据源处理流程。
 实现EBS项目预算填报场景。
 基于财务共享4.0调整脚本。
@@ -4285,6 +4281,80 @@
 发票勾选认证场景优化国税系统白屏时的刷新操作。
 整理代码。
 梳理脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获取科目汇总表的综合查询接口问题。
+在获取科目汇总表接口修改完成之后，查看并更新所有涉及到的场景。
+查看财务共享4.0页面，分析组件，准备重构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论设计EBS项目预算填报场景数据源处理流程。主数据维护场景新需求优化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看公共组件异常导致脚本批量报错的问题。
+实现模拟控制台弹窗获取验证码演示代码。
+实现主数据维护上传附件操作。
+在2.0版本公共组件中实现解压方法。
+查看月末结账场景取数异常问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项发票分类场景优化匹配逻辑。
+查看销项发票分类场景接口取数模糊匹配异常问题。
+销项分类场景添加下证日期、登记日期与日期比对。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据维护场景添加上传附件的操作。
+在乌沙山那边的申请流程结束后，中台数据场景新增数据，上线经信网取数场景。
+车险公文填报场景根据用户要求对word格式进行修改。
+基于财务共享4.0调整脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项分类场景修改比对逻辑，增加金额与税额比对。
+实现主数据维护场景客商新增时获取表单参数附件名称的操作。
+实现客商新增时上传附件的整理操作。
+测试客商新增的新流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项分类场景修改比对逻辑，增加金额与税额比对。
+实现客商新增时上传附件的整理操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项发票分类场景优化匹配逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现主数据维护上传附件操作。
+查看月末结账场景取数异常问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看蓝光订单入库单入库场景截图失败问题。
+修改蓝光订单入库单入库场景配置。
+主数据维护场景处理批量上传多个附件的操作。
+主数据维护场景添加附件资源文件校验。
+配置2.0脚本运行测试环境，测试主数据维护场景客商新增。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打码。
+处理日利润报表上报场景登录异常的问题。
+处理日利润报表上报场景点击页签无效的问题。
+销项分类场景查找并修复取数bug。
+销项分类场景优化等待加载时定位不准的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化销项发票分类场景比对逻辑。
+调整销项发票分类场景判断逻辑，特殊处理查询到单据编号但是金额比对不上的数据。
+优化日利润报表上报场景问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5208,10 +5278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="C498" sqref="C498:D498"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9984,10 +10054,10 @@
         <v>45261</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D489" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10000,33 +10070,63 @@
         <v>18</v>
       </c>
       <c r="C491" s="33" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D491" s="34"/>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
         <v>45264</v>
       </c>
-    </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C492" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D492" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B493" s="16">
         <v>45265</v>
       </c>
-    </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C493" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D493" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B494" s="16">
         <v>45266</v>
       </c>
-    </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C494" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D494" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B495" s="16">
         <v>45267</v>
       </c>
-    </row>
-    <row r="496" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C495" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="D495" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B496" s="16">
         <v>45268</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D496" s="8" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="497" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10041,13 +10141,61 @@
       <c r="C498" s="33"/>
       <c r="D498" s="34"/>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B499" s="16">
         <v>45271</v>
       </c>
+      <c r="C499" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B500" s="16">
+        <v>45272</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B501" s="16">
+        <v>45273</v>
+      </c>
+      <c r="C501" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B502" s="16">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B503" s="16">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="35"/>
+      <c r="C504" s="36"/>
+      <c r="D504" s="37"/>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B505" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C505" s="33"/>
+      <c r="D505" s="34"/>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B506" s="16">
+        <v>45278</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="144">
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
     <mergeCell ref="B497:D497"/>
     <mergeCell ref="C498:D498"/>
     <mergeCell ref="B490:D490"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CF62E-08EF-4F28-A9B8-7225125576CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBBBBF-DBA2-4967-A95D-36DD4D727B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="60" windowWidth="21900" windowHeight="15540" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="723">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4354,7 +4354,15 @@
   <si>
     <t>优化销项发票分类场景比对逻辑。
 调整销项发票分类场景判断逻辑，特殊处理查询到单据编号但是金额比对不上的数据。
-优化日利润报表上报场景问题。</t>
+优化日利润报表上报场景问题。
+查看主数据维护场景定位异常问题。 
+优化win32定位窗口句柄方法。
+调整更新公共组件并更新其相关的场景。
+查看线上版本主数据维护场景问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据维护场景添加上传附件的操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4950,12 +4958,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4965,10 +4967,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4997,6 +4999,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5281,7 +5289,7 @@
   <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501"/>
+      <selection activeCell="C498" sqref="C498:D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5331,19 +5339,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5405,19 +5413,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5476,18 +5484,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5545,18 +5553,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5614,18 +5622,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5683,18 +5691,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5752,18 +5760,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5821,18 +5829,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5890,18 +5898,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5948,18 +5956,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -6017,18 +6025,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -6083,18 +6091,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6168,18 +6176,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="34"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6237,18 +6245,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6306,18 +6314,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="37"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6375,18 +6383,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="37"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6444,18 +6452,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="37"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6513,18 +6521,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6582,18 +6590,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="34"/>
+      <c r="D134" s="37"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6651,16 +6659,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="34"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6718,16 +6726,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6785,16 +6793,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="37"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6852,16 +6860,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="37"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6919,16 +6927,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="37"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6975,16 +6983,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="35"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="37"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -7042,16 +7050,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="35"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="34"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7106,16 +7114,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7195,16 +7203,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="35"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="37"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="35"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="37"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7262,16 +7270,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="35"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="37"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="34"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7329,16 +7337,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="37"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="34"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="37"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7396,18 +7404,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="35"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="37"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="34"/>
+      <c r="D219" s="37"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7465,18 +7473,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="35"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="37"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="35"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="34"/>
+      <c r="D226" s="37"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7534,18 +7542,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="35"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="37"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="33" t="s">
+      <c r="C233" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="34"/>
+      <c r="D233" s="37"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7603,18 +7611,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="35"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="37"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="34"/>
+      <c r="D240" s="37"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7669,18 +7677,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="35"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="37"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="35"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C247" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="34"/>
+      <c r="D247" s="37"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7738,18 +7746,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="35"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="33" t="s">
+      <c r="C254" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="34"/>
+      <c r="D254" s="37"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7804,18 +7812,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="35"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="37"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="35"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="33" t="s">
+      <c r="C261" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="34"/>
+      <c r="D261" s="37"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7873,18 +7881,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="35"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="37"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="35"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="34"/>
+      <c r="D268" s="37"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7939,18 +7947,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="35"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="37"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="35"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C275" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="34"/>
+      <c r="D275" s="37"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -8019,18 +8027,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="35"/>
-      <c r="C282" s="36"/>
-      <c r="D282" s="37"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="35"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="34"/>
+      <c r="D283" s="37"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -8066,18 +8074,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="35"/>
-      <c r="C287" s="36"/>
-      <c r="D287" s="37"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="35"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="34"/>
+      <c r="D288" s="37"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8135,18 +8143,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="35"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="37"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="35"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="34"/>
+      <c r="D295" s="37"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8204,18 +8212,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="35"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="37"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="35"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="33" t="s">
+      <c r="C302" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="34"/>
+      <c r="D302" s="37"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8270,18 +8278,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="35"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="37"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="35"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="34"/>
+      <c r="D309" s="37"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8339,18 +8347,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="35"/>
-      <c r="C315" s="36"/>
-      <c r="D315" s="37"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="34"/>
+      <c r="D315" s="35"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="34"/>
+      <c r="D316" s="37"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8408,18 +8416,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="35"/>
-      <c r="C322" s="36"/>
-      <c r="D322" s="37"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="35"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="33" t="s">
+      <c r="C323" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="34"/>
+      <c r="D323" s="37"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8477,18 +8485,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="35"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="37"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="34"/>
+      <c r="D329" s="35"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="33" t="s">
+      <c r="C330" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="34"/>
+      <c r="D330" s="37"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8524,18 +8532,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="35"/>
-      <c r="C334" s="36"/>
-      <c r="D334" s="37"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="35"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="33" t="s">
+      <c r="C335" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="34"/>
+      <c r="D335" s="37"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8601,18 +8609,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="35"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="37"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="34"/>
+      <c r="D342" s="35"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="33" t="s">
+      <c r="C343" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="34"/>
+      <c r="D343" s="37"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8670,18 +8678,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="35"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="37"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="34"/>
+      <c r="D349" s="35"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="33" t="s">
+      <c r="C350" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="34"/>
+      <c r="D350" s="37"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8739,18 +8747,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="35"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="37"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="35"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="33" t="s">
+      <c r="C357" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="34"/>
+      <c r="D357" s="37"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8808,18 +8816,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="35"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="37"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="35"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="33" t="s">
+      <c r="C364" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="34"/>
+      <c r="D364" s="37"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8877,18 +8885,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="35"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="37"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="35"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="33" t="s">
+      <c r="C371" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="34"/>
+      <c r="D371" s="37"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8946,18 +8954,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="35"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="37"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="35"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="33" t="s">
+      <c r="C378" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="34"/>
+      <c r="D378" s="37"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -9015,18 +9023,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="35"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="37"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="35"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="33" t="s">
+      <c r="C385" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="34"/>
+      <c r="D385" s="37"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -9084,18 +9092,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="35"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="37"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="35"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="33" t="s">
+      <c r="C392" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="34"/>
+      <c r="D392" s="37"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9153,18 +9161,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="35"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="37"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="34"/>
+      <c r="D398" s="35"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="33" t="s">
+      <c r="C399" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="34"/>
+      <c r="D399" s="37"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9222,18 +9230,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="35"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="37"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="34"/>
+      <c r="D405" s="35"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9291,18 +9299,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="35"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="37"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="34"/>
+      <c r="D412" s="35"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="33" t="s">
+      <c r="C413" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="34"/>
+      <c r="D413" s="37"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9360,18 +9368,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="35"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="37"/>
+      <c r="B419" s="33"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="33" t="s">
+      <c r="C420" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="34"/>
+      <c r="D420" s="37"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9429,18 +9437,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="35"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="37"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="33" t="s">
+      <c r="C427" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="34"/>
+      <c r="D427" s="37"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9487,18 +9495,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="35"/>
-      <c r="C432" s="36"/>
-      <c r="D432" s="37"/>
+      <c r="B432" s="33"/>
+      <c r="C432" s="34"/>
+      <c r="D432" s="35"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="33" t="s">
+      <c r="C433" s="36" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="34"/>
+      <c r="D433" s="37"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9578,18 +9586,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="35"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="37"/>
+      <c r="B441" s="33"/>
+      <c r="C441" s="34"/>
+      <c r="D441" s="35"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="33" t="s">
+      <c r="C442" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="34"/>
+      <c r="D442" s="37"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9647,18 +9655,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="35"/>
-      <c r="C448" s="36"/>
-      <c r="D448" s="37"/>
+      <c r="B448" s="33"/>
+      <c r="C448" s="34"/>
+      <c r="D448" s="35"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="34"/>
+      <c r="D449" s="37"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9716,18 +9724,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="35"/>
-      <c r="C455" s="36"/>
-      <c r="D455" s="37"/>
+      <c r="B455" s="33"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="35"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="33" t="s">
+      <c r="C456" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="34"/>
+      <c r="D456" s="37"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9785,18 +9793,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="35"/>
-      <c r="C462" s="36"/>
-      <c r="D462" s="37"/>
+      <c r="B462" s="33"/>
+      <c r="C462" s="34"/>
+      <c r="D462" s="35"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="33" t="s">
+      <c r="C463" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="34"/>
+      <c r="D463" s="37"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9854,18 +9862,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="35"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="37"/>
+      <c r="B469" s="33"/>
+      <c r="C469" s="34"/>
+      <c r="D469" s="35"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="33" t="s">
+      <c r="C470" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="34"/>
+      <c r="D470" s="37"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9923,18 +9931,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="35"/>
-      <c r="C476" s="36"/>
-      <c r="D476" s="37"/>
+      <c r="B476" s="33"/>
+      <c r="C476" s="34"/>
+      <c r="D476" s="35"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="33" t="s">
+      <c r="C477" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="34"/>
+      <c r="D477" s="37"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9992,18 +10000,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="35"/>
-      <c r="C483" s="36"/>
-      <c r="D483" s="37"/>
+      <c r="B483" s="33"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="35"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="33" t="s">
+      <c r="C484" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="34"/>
+      <c r="D484" s="37"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -10061,18 +10069,18 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="35"/>
-      <c r="C490" s="36"/>
-      <c r="D490" s="37"/>
+      <c r="B490" s="33"/>
+      <c r="C490" s="34"/>
+      <c r="D490" s="35"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="33" t="s">
+      <c r="C491" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D491" s="34"/>
+      <c r="D491" s="37"/>
     </row>
     <row r="492" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -10130,16 +10138,18 @@
       </c>
     </row>
     <row r="497" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="35"/>
-      <c r="C497" s="36"/>
-      <c r="D497" s="37"/>
+      <c r="B497" s="33"/>
+      <c r="C497" s="34"/>
+      <c r="D497" s="35"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C498" s="33"/>
-      <c r="D498" s="34"/>
+      <c r="C498" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="D498" s="37"/>
     </row>
     <row r="499" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B499" s="16">
@@ -10157,7 +10167,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="501" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B501" s="16">
         <v>45273</v>
       </c>
@@ -10176,16 +10186,16 @@
       </c>
     </row>
     <row r="504" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="35"/>
-      <c r="C504" s="36"/>
-      <c r="D504" s="37"/>
+      <c r="B504" s="33"/>
+      <c r="C504" s="34"/>
+      <c r="D504" s="35"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B505" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C505" s="33"/>
-      <c r="D505" s="34"/>
+      <c r="C505" s="36"/>
+      <c r="D505" s="37"/>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B506" s="16">
@@ -10194,16 +10204,116 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="B469:D469"/>
     <mergeCell ref="C470:D470"/>
     <mergeCell ref="B462:D462"/>
@@ -10228,116 +10338,16 @@
     <mergeCell ref="C378:D378"/>
     <mergeCell ref="B432:D432"/>
     <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBBBBF-DBA2-4967-A95D-36DD4D727B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E4C4C-91F2-4549-AC39-2F08498BCE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="60" windowWidth="21900" windowHeight="15540" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="730">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4363,6 +4363,45 @@
   </si>
   <si>
     <t>主数据维护场景添加上传附件的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理selenium公共组件，用于国税爬虫项目上。
+为了便于运维检查，优化日利润报表上报场景报错与截图。
+车险公文填报场景实现切换字体格式与字体大小的操作。
+主数据维护场景更新能投核算主体配置。
+调整selenium公共组件，使其可以使用多并发接管窗口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpa控制工具开发可以多并发使用的功能。
+湖南国税系统相关的爬虫开发。
+主数据维护场景其余分支的附件上传操作的适配与上传。
+打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化selenium公共组件，使其可以直接多并发启动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整selenium公共组件，使其可以使用多并发接管窗口。
+研究selenium伪装模拟，模拟为正常页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整selenium公共组件，使其可以使用多并发接管窗口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理日利润报表上报场景问题。
+车险公文填报场景实现切换字体格式与字体大小的操作。
+主数据维护场景更新能投核算主体配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化销项发票分类场景比对逻辑。
+优化日利润报表上报场景问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5288,8 +5327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="C498" sqref="C498:D498"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="D500" sqref="D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10158,6 +10197,9 @@
       <c r="C499" s="7" t="s">
         <v>719</v>
       </c>
+      <c r="D499" s="8" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="500" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B500" s="16">
@@ -10166,6 +10208,9 @@
       <c r="C500" s="7" t="s">
         <v>720</v>
       </c>
+      <c r="D500" s="8" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="501" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B501" s="16">
@@ -10174,15 +10219,30 @@
       <c r="C501" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D501" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B502" s="16">
         <v>45274</v>
       </c>
-    </row>
-    <row r="503" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C502" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D502" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B503" s="16">
         <v>45275</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D503" s="8" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="504" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10200,6 +10260,9 @@
     <row r="506" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B506" s="16">
         <v>45278</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E4C4C-91F2-4549-AC39-2F08498BCE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BC150-957E-417F-8F72-6BF32ED8F51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="730">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4381,10 +4381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优化selenium公共组件，使其可以直接多并发启动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调整selenium公共组件，使其可以使用多并发接管窗口。
 研究selenium伪装模拟，模拟为正常页面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4402,6 +4398,11 @@
   <si>
     <t>优化销项发票分类场景比对逻辑。
 优化日利润报表上报场景问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化selenium公共组件，使其可以直接多并发启动。
+查看薪酬分发场景线上问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5325,10 +5326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D506"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="D500" sqref="D500"/>
+    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10209,7 +10210,7 @@
         <v>720</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="501" spans="2:4" ht="114" x14ac:dyDescent="0.2">
@@ -10220,7 +10221,7 @@
         <v>721</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="502" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -10231,7 +10232,7 @@
         <v>723</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="503" spans="2:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10239,7 +10240,7 @@
         <v>45275</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D503" s="8" t="s">
         <v>724</v>
@@ -10257,16 +10258,53 @@
       <c r="C505" s="36"/>
       <c r="D505" s="37"/>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B506" s="16">
         <v>45278</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>725</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B507" s="16">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B508" s="16">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B509" s="16">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="16">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="33"/>
+      <c r="C511" s="34"/>
+      <c r="D511" s="35"/>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B512" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C512" s="36"/>
+      <c r="D512" s="37"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B513" s="16">
+        <v>45285</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="146">
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
@@ -10359,6 +10397,8 @@
     <mergeCell ref="B225:D225"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
     <mergeCell ref="B426:D426"/>
     <mergeCell ref="C427:D427"/>
     <mergeCell ref="B391:D391"/>
@@ -10377,6 +10417,8 @@
     <mergeCell ref="B334:D334"/>
     <mergeCell ref="C335:D335"/>
     <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
     <mergeCell ref="B469:D469"/>
     <mergeCell ref="C470:D470"/>
     <mergeCell ref="B462:D462"/>
@@ -10399,8 +10441,8 @@
     <mergeCell ref="C385:D385"/>
     <mergeCell ref="B377:D377"/>
     <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
     <mergeCell ref="B504:D504"/>
     <mergeCell ref="C505:D505"/>
     <mergeCell ref="B497:D497"/>
@@ -10409,8 +10451,6 @@
     <mergeCell ref="C491:D491"/>
     <mergeCell ref="B483:D483"/>
     <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BC150-957E-417F-8F72-6BF32ED8F51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3533117-3B98-429D-AF60-852EEAE8B2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="734">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4403,6 +4403,26 @@
   <si>
     <t>优化selenium公共组件，使其可以直接多并发启动。
 查看薪酬分发场景线上问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化selenium公共组件。
+查看内蒙古营销报表图片上传场景月报异常问题。
+实现湖南国税登录操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化rpa公共组件，适配多并发。开发湖南国税系统相关爬虫操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现湖南国税系统操作。
+完成才哥临时任务。
+薪酬分发场景新公司上线适配。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成才哥临时任务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5329,7 +5349,7 @@
   <dimension ref="A1:D513"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="C506" sqref="C506"/>
+      <selection activeCell="C509" sqref="C509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10255,7 +10275,9 @@
       <c r="B505" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C505" s="36"/>
+      <c r="C505" s="36" t="s">
+        <v>731</v>
+      </c>
       <c r="D505" s="37"/>
     </row>
     <row r="506" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -10266,19 +10288,28 @@
         <v>729</v>
       </c>
     </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B507" s="16">
         <v>45279</v>
       </c>
-    </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C507" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B508" s="16">
         <v>45280</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B509" s="16">
         <v>45281</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="510" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3533117-3B98-429D-AF60-852EEAE8B2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C67BC-D579-4DB6-9DDE-F95B5405786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="739">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4422,7 +4422,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成才哥临时任务。
+优化公共组件代码。
+实现湖南国税系统操作。
+打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS项目预算填报场景的开发。
+优化升级RPA控制浏览器的公共组件。
+智能商情场景需要的NLP打码工作。
+处理线上脚本出现的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化selenium公共组件。
+实现湖南国税登录操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现湖南国税系统操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成才哥临时任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行对账场景添加渤海银行新格式适配。
+税费计提场景优化财务共享操作，添加错误信息捕捉。
+优化项目，适配电脑。
+查看win32操作wps的问题。
+打码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5018,6 +5049,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5027,10 +5064,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5059,12 +5096,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5348,8 +5379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="C510" sqref="C510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5399,19 +5430,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5473,19 +5504,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5544,18 +5575,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5613,18 +5644,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5682,18 +5713,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5751,18 +5782,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5820,18 +5851,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5889,18 +5920,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5958,18 +5989,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -6016,18 +6047,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -6085,18 +6116,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -6151,18 +6182,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6236,18 +6267,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6305,18 +6336,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6374,18 +6405,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6443,18 +6474,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6512,18 +6543,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="37"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6581,18 +6612,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="37"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6650,18 +6681,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="37"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6719,16 +6750,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6786,16 +6817,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6853,16 +6884,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6920,16 +6951,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6987,16 +7018,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -7043,16 +7074,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -7110,16 +7141,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7174,16 +7205,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7263,16 +7294,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="37"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7330,16 +7361,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7397,16 +7428,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="37"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="36"/>
-      <c r="D212" s="37"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7464,18 +7495,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="37"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="37"/>
+      <c r="D219" s="34"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7533,18 +7564,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="37"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="37"/>
+      <c r="D226" s="34"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7602,18 +7633,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="37"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="37"/>
+      <c r="D233" s="34"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7671,18 +7702,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="37"/>
+      <c r="D240" s="34"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7737,18 +7768,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="37"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="37"/>
+      <c r="D247" s="34"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7806,18 +7837,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="37"/>
+      <c r="D254" s="34"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7872,18 +7903,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="37"/>
+      <c r="D261" s="34"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7941,18 +7972,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="37"/>
+      <c r="D268" s="34"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -8007,18 +8038,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="37"/>
+      <c r="D275" s="34"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -8087,18 +8118,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="37"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="37"/>
+      <c r="D283" s="34"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -8134,18 +8165,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="37"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="37"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8203,18 +8234,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="37"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="37"/>
+      <c r="D295" s="34"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8272,18 +8303,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="37"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="37"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8338,18 +8369,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="37"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="37"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8407,18 +8438,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="37"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8476,18 +8507,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="37"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="37"/>
+      <c r="D323" s="34"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8545,18 +8576,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="37"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="37"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8592,18 +8623,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="37"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="37"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8669,18 +8700,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="37"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="37"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8738,18 +8769,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="37"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="37"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8807,18 +8838,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="37"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="37"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8876,18 +8907,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="37"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8945,18 +8976,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="37"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="37"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -9014,18 +9045,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="37"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="37"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -9083,18 +9114,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="37"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="37"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -9152,18 +9183,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="37"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9221,18 +9252,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="37"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="37"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9290,18 +9321,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="35"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="37"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9359,18 +9390,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="36" t="s">
+      <c r="C413" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="37"/>
+      <c r="D413" s="34"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9428,18 +9459,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="37"/>
+      <c r="D420" s="34"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9497,18 +9528,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="37"/>
+      <c r="D427" s="34"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9555,18 +9586,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="37"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="37"/>
+      <c r="D433" s="34"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9646,18 +9677,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="37"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36" t="s">
+      <c r="C442" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="37"/>
+      <c r="D442" s="34"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9715,18 +9746,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="37"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="37"/>
+      <c r="D449" s="34"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9784,18 +9815,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="37"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36" t="s">
+      <c r="C456" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="37"/>
+      <c r="D456" s="34"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9853,18 +9884,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="35"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="37"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="37"/>
+      <c r="D463" s="34"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9922,18 +9953,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="35"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36" t="s">
+      <c r="C470" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="37"/>
+      <c r="D470" s="34"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9991,18 +10022,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="35"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="37"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="C477" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="37"/>
+      <c r="D477" s="34"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -10060,18 +10091,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="35"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="37"/>
+      <c r="D484" s="34"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -10129,18 +10160,18 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="33"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="35"/>
+      <c r="B490" s="35"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="37"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="36" t="s">
+      <c r="C491" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="D491" s="37"/>
+      <c r="D491" s="34"/>
     </row>
     <row r="492" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -10198,18 +10229,18 @@
       </c>
     </row>
     <row r="497" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="33"/>
-      <c r="C497" s="34"/>
-      <c r="D497" s="35"/>
+      <c r="B497" s="35"/>
+      <c r="C497" s="36"/>
+      <c r="D497" s="37"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C498" s="36" t="s">
+      <c r="C498" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="D498" s="37"/>
+      <c r="D498" s="34"/>
     </row>
     <row r="499" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B499" s="16">
@@ -10267,18 +10298,18 @@
       </c>
     </row>
     <row r="504" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="33"/>
-      <c r="C504" s="34"/>
-      <c r="D504" s="35"/>
+      <c r="B504" s="35"/>
+      <c r="C504" s="36"/>
+      <c r="D504" s="37"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B505" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C505" s="36" t="s">
+      <c r="C505" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="D505" s="37"/>
+      <c r="D505" s="34"/>
     </row>
     <row r="506" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B506" s="16">
@@ -10287,6 +10318,9 @@
       <c r="C506" s="7" t="s">
         <v>729</v>
       </c>
+      <c r="D506" s="8" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="507" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B507" s="16">
@@ -10295,6 +10329,9 @@
       <c r="C507" s="7" t="s">
         <v>730</v>
       </c>
+      <c r="D507" s="8" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="508" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B508" s="16">
@@ -10303,31 +10340,43 @@
       <c r="C508" s="7" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D508" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B509" s="16">
         <v>45281</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="510" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D509" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B510" s="16">
         <v>45282</v>
       </c>
+      <c r="C510" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D510" s="8" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="511" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="33"/>
-      <c r="C511" s="34"/>
-      <c r="D511" s="35"/>
+      <c r="B511" s="35"/>
+      <c r="C511" s="36"/>
+      <c r="D511" s="37"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B512" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C512" s="36"/>
-      <c r="D512" s="37"/>
+      <c r="C512" s="33"/>
+      <c r="D512" s="34"/>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B513" s="16">
@@ -10336,6 +10385,128 @@
     </row>
   </sheetData>
   <mergeCells count="146">
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
@@ -10360,128 +10531,6 @@
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="B322:D322"/>
     <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C67BC-D579-4DB6-9DDE-F95B5405786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB4F6E7-6845-40A9-8F37-8B43E6423714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="742">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4454,6 +4454,23 @@
 优化项目，适配电脑。
 查看win32操作wps的问题。
 打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化资源税pdf解析。
+优化收入核对场景资源税的获取方式。
+上线车险公文填报场景新增切换字体与字体大小的功能。
+智能商情场景需要的NLP打码。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel公共组件实现在取数时自动处理整数取整与科学计数法的操作。
+主数据维护场景优化解析excel时对数字数据的科学计数法判断和整数处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5049,12 +5066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5064,10 +5075,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5096,6 +5107,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5377,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="C510" sqref="C510"/>
+    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
+      <selection activeCell="C514" sqref="C514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5430,19 +5447,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5504,19 +5521,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5575,18 +5592,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5644,18 +5661,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5713,18 +5730,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5782,18 +5799,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5851,18 +5868,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5920,18 +5937,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5989,18 +6006,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -6047,18 +6064,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -6116,18 +6133,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -6182,18 +6199,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6267,18 +6284,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="34"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6336,18 +6353,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6405,18 +6422,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="37"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6474,18 +6491,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="37"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6543,18 +6560,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="37"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6612,18 +6629,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6681,18 +6698,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="34"/>
+      <c r="D134" s="37"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6750,16 +6767,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="34"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6817,16 +6834,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6884,16 +6901,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="37"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6951,16 +6968,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="37"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -7018,16 +7035,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="37"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -7074,16 +7091,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="35"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="37"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -7141,16 +7158,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="35"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="34"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7205,16 +7222,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7294,16 +7311,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="35"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="37"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="35"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="37"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7361,16 +7378,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="35"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="37"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="34"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7428,16 +7445,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="37"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="34"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="37"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7495,18 +7512,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="35"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="37"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="34"/>
+      <c r="D219" s="37"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7564,18 +7581,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="35"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="37"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="35"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="34"/>
+      <c r="D226" s="37"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7633,18 +7650,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="35"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="37"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="33" t="s">
+      <c r="C233" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="34"/>
+      <c r="D233" s="37"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7702,18 +7719,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="35"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="37"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="34"/>
+      <c r="D240" s="37"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7768,18 +7785,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="35"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="37"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="35"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C247" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="34"/>
+      <c r="D247" s="37"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7837,18 +7854,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="35"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="33" t="s">
+      <c r="C254" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="34"/>
+      <c r="D254" s="37"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7903,18 +7920,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="35"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="37"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="35"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="33" t="s">
+      <c r="C261" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="34"/>
+      <c r="D261" s="37"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7972,18 +7989,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="35"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="37"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="35"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="34"/>
+      <c r="D268" s="37"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -8038,18 +8055,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="35"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="37"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="35"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C275" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="34"/>
+      <c r="D275" s="37"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -8118,18 +8135,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="35"/>
-      <c r="C282" s="36"/>
-      <c r="D282" s="37"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="35"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="34"/>
+      <c r="D283" s="37"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -8165,18 +8182,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="35"/>
-      <c r="C287" s="36"/>
-      <c r="D287" s="37"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="35"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="34"/>
+      <c r="D288" s="37"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8234,18 +8251,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="35"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="37"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="35"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="34"/>
+      <c r="D295" s="37"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8303,18 +8320,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="35"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="37"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="35"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="33" t="s">
+      <c r="C302" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="34"/>
+      <c r="D302" s="37"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8369,18 +8386,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="35"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="37"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="35"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="34"/>
+      <c r="D309" s="37"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8438,18 +8455,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="35"/>
-      <c r="C315" s="36"/>
-      <c r="D315" s="37"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="34"/>
+      <c r="D315" s="35"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="34"/>
+      <c r="D316" s="37"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8507,18 +8524,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="35"/>
-      <c r="C322" s="36"/>
-      <c r="D322" s="37"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="35"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="33" t="s">
+      <c r="C323" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="34"/>
+      <c r="D323" s="37"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8576,18 +8593,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="35"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="37"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="34"/>
+      <c r="D329" s="35"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="33" t="s">
+      <c r="C330" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="34"/>
+      <c r="D330" s="37"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8623,18 +8640,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="35"/>
-      <c r="C334" s="36"/>
-      <c r="D334" s="37"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="35"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="33" t="s">
+      <c r="C335" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="34"/>
+      <c r="D335" s="37"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8700,18 +8717,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="35"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="37"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="34"/>
+      <c r="D342" s="35"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="33" t="s">
+      <c r="C343" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="34"/>
+      <c r="D343" s="37"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8769,18 +8786,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="35"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="37"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="34"/>
+      <c r="D349" s="35"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="33" t="s">
+      <c r="C350" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="34"/>
+      <c r="D350" s="37"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8838,18 +8855,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="35"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="37"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="35"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="33" t="s">
+      <c r="C357" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="34"/>
+      <c r="D357" s="37"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8907,18 +8924,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="35"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="37"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="35"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="33" t="s">
+      <c r="C364" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="34"/>
+      <c r="D364" s="37"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8976,18 +8993,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="35"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="37"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="35"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="33" t="s">
+      <c r="C371" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="34"/>
+      <c r="D371" s="37"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -9045,18 +9062,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="35"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="37"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="35"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="33" t="s">
+      <c r="C378" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="34"/>
+      <c r="D378" s="37"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -9114,18 +9131,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="35"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="37"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="35"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="33" t="s">
+      <c r="C385" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="34"/>
+      <c r="D385" s="37"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -9183,18 +9200,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="35"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="37"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="35"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="33" t="s">
+      <c r="C392" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="34"/>
+      <c r="D392" s="37"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9252,18 +9269,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="35"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="37"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="34"/>
+      <c r="D398" s="35"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="33" t="s">
+      <c r="C399" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="34"/>
+      <c r="D399" s="37"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9321,18 +9338,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="35"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="37"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="34"/>
+      <c r="D405" s="35"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9390,18 +9407,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="35"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="37"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="34"/>
+      <c r="D412" s="35"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="33" t="s">
+      <c r="C413" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="34"/>
+      <c r="D413" s="37"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9459,18 +9476,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="35"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="37"/>
+      <c r="B419" s="33"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="33" t="s">
+      <c r="C420" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="34"/>
+      <c r="D420" s="37"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9528,18 +9545,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="35"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="37"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="33" t="s">
+      <c r="C427" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="34"/>
+      <c r="D427" s="37"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9586,18 +9603,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="35"/>
-      <c r="C432" s="36"/>
-      <c r="D432" s="37"/>
+      <c r="B432" s="33"/>
+      <c r="C432" s="34"/>
+      <c r="D432" s="35"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="33" t="s">
+      <c r="C433" s="36" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="34"/>
+      <c r="D433" s="37"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9677,18 +9694,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="35"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="37"/>
+      <c r="B441" s="33"/>
+      <c r="C441" s="34"/>
+      <c r="D441" s="35"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="33" t="s">
+      <c r="C442" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="34"/>
+      <c r="D442" s="37"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9746,18 +9763,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="35"/>
-      <c r="C448" s="36"/>
-      <c r="D448" s="37"/>
+      <c r="B448" s="33"/>
+      <c r="C448" s="34"/>
+      <c r="D448" s="35"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="34"/>
+      <c r="D449" s="37"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9815,18 +9832,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="35"/>
-      <c r="C455" s="36"/>
-      <c r="D455" s="37"/>
+      <c r="B455" s="33"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="35"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="33" t="s">
+      <c r="C456" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="34"/>
+      <c r="D456" s="37"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9884,18 +9901,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="35"/>
-      <c r="C462" s="36"/>
-      <c r="D462" s="37"/>
+      <c r="B462" s="33"/>
+      <c r="C462" s="34"/>
+      <c r="D462" s="35"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="33" t="s">
+      <c r="C463" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="34"/>
+      <c r="D463" s="37"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9953,18 +9970,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="35"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="37"/>
+      <c r="B469" s="33"/>
+      <c r="C469" s="34"/>
+      <c r="D469" s="35"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="33" t="s">
+      <c r="C470" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="34"/>
+      <c r="D470" s="37"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -10022,18 +10039,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="35"/>
-      <c r="C476" s="36"/>
-      <c r="D476" s="37"/>
+      <c r="B476" s="33"/>
+      <c r="C476" s="34"/>
+      <c r="D476" s="35"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="33" t="s">
+      <c r="C477" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="34"/>
+      <c r="D477" s="37"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -10091,18 +10108,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="35"/>
-      <c r="C483" s="36"/>
-      <c r="D483" s="37"/>
+      <c r="B483" s="33"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="35"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="33" t="s">
+      <c r="C484" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="34"/>
+      <c r="D484" s="37"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -10160,18 +10177,18 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="35"/>
-      <c r="C490" s="36"/>
-      <c r="D490" s="37"/>
+      <c r="B490" s="33"/>
+      <c r="C490" s="34"/>
+      <c r="D490" s="35"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="33" t="s">
+      <c r="C491" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D491" s="34"/>
+      <c r="D491" s="37"/>
     </row>
     <row r="492" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -10229,18 +10246,18 @@
       </c>
     </row>
     <row r="497" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="35"/>
-      <c r="C497" s="36"/>
-      <c r="D497" s="37"/>
+      <c r="B497" s="33"/>
+      <c r="C497" s="34"/>
+      <c r="D497" s="35"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C498" s="33" t="s">
+      <c r="C498" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="D498" s="34"/>
+      <c r="D498" s="37"/>
     </row>
     <row r="499" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B499" s="16">
@@ -10298,18 +10315,18 @@
       </c>
     </row>
     <row r="504" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="35"/>
-      <c r="C504" s="36"/>
-      <c r="D504" s="37"/>
+      <c r="B504" s="33"/>
+      <c r="C504" s="34"/>
+      <c r="D504" s="35"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B505" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C505" s="33" t="s">
+      <c r="C505" s="36" t="s">
         <v>731</v>
       </c>
-      <c r="D505" s="34"/>
+      <c r="D505" s="37"/>
     </row>
     <row r="506" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B506" s="16">
@@ -10367,34 +10384,199 @@
       </c>
     </row>
     <row r="511" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="35"/>
-      <c r="C511" s="36"/>
-      <c r="D511" s="37"/>
+      <c r="B511" s="33"/>
+      <c r="C511" s="34"/>
+      <c r="D511" s="35"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B512" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C512" s="33"/>
-      <c r="D512" s="34"/>
-    </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C512" s="36"/>
+      <c r="D512" s="37"/>
+    </row>
+    <row r="513" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B513" s="16">
         <v>45285</v>
       </c>
+      <c r="C513" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D513" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B514" s="16">
+        <v>45286</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B515" s="16">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B516" s="16">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="517" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="16">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="33"/>
+      <c r="C518" s="34"/>
+      <c r="D518" s="35"/>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B519" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C519" s="36"/>
+      <c r="D519" s="37"/>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B520" s="16">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B521" s="16">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B522" s="16">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B523" s="16">
+        <v>45296</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="146">
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
+  <mergeCells count="148">
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
     <mergeCell ref="B476:D476"/>
     <mergeCell ref="C477:D477"/>
     <mergeCell ref="B469:D469"/>
@@ -10419,118 +10601,16 @@
     <mergeCell ref="C385:D385"/>
     <mergeCell ref="B377:D377"/>
     <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB4F6E7-6845-40A9-8F37-8B43E6423714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E4922-4E20-460F-BC5C-585E47466E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="746">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4469,8 +4469,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>优化升级RPA控制浏览器的公共组件。处理线上脚本出现的问题。打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>excel公共组件实现在取数时自动处理整数取整与科学计数法的操作。
-主数据维护场景优化解析excel时对数字数据的科学计数法判断和整数处理。</t>
+主数据维护场景优化解析excel时对数字数据的科学计数法判断和整数处理。
+财务共享登录界面升级，更新所有相关的场景脚本。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化pdf提取表格数据的公共组件。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化pdf提取表格数据的公共组件。
+OCR发票打码。
+银行对账场景优化因为银行账号中有*号导致失败的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+湖南国税场景后续操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5397,7 +5419,7 @@
   <dimension ref="A1:D523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="C514" sqref="C514"/>
+      <selection activeCell="D515" sqref="D515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10392,7 +10414,9 @@
       <c r="B512" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C512" s="36"/>
+      <c r="C512" s="36" t="s">
+        <v>741</v>
+      </c>
       <c r="D512" s="37"/>
     </row>
     <row r="513" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -10406,17 +10430,26 @@
         <v>739</v>
       </c>
     </row>
-    <row r="514" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B514" s="16">
         <v>45286</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+      <c r="D514" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B515" s="16">
         <v>45287</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D515" s="8" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.2">
@@ -10463,8 +10496,6 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="B154:D154"/>
     <mergeCell ref="B282:D282"/>
@@ -10472,6 +10503,23 @@
     <mergeCell ref="C169:D169"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
     <mergeCell ref="C519:D519"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
@@ -10489,9 +10537,13 @@
     <mergeCell ref="B287:D287"/>
     <mergeCell ref="C288:D288"/>
     <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="B68:D68"/>
@@ -10500,15 +10552,10 @@
     <mergeCell ref="B133:D133"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
     <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B20:D20"/>
@@ -10531,24 +10578,8 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="B225:D225"/>
     <mergeCell ref="B174:D174"/>
@@ -10556,6 +10587,8 @@
     <mergeCell ref="B232:D232"/>
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
     <mergeCell ref="C433:D433"/>
     <mergeCell ref="B426:D426"/>
     <mergeCell ref="C427:D427"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E4922-4E20-460F-BC5C-585E47466E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846B3B91-9E95-480A-9872-D6BBAFF268E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="757">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4494,6 +4494,68 @@
     <t>OCR发票打码。
 湖南国税场景后续操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理线上问题。OCR打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>发票勾选认证场景处理公司名称括号异常导致无法查询到数据的问题。
+销项发票分类场景修改资源文件表头判断逻辑。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+查看销项发票分类场景无法识别合同信息的问题。
+处理销项发票分类场景匹配上多个合同的问题，优化判断逻辑。
+优化模板匹配定位偏差问题。
+测试日利润报表上报场景在模板匹配公共组件被优化之后的运行情况。
+发票勾选认证场景适配国税页面变更。
+发票勾选认证场景添加新的公司配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+查看公文：期间费用的问题，替换接口为公共组件最新代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+检查现有所有财务共享相关场景，去除上传封面操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现银行流水解析公共组件。
+测试银行流水解析的公共组件。
+将解析银行流水的公共组件接入银行对账分支进行测试。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化解析银行流水的公共组件。
+查看财务数据提取场景资产清单取数异常的问题。
+查看环境产业银行对账无法获取明细账科目对应账号的问题。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理优化主数据维护场景流程。
+优化主数据维护场景修改发布状态的操作。
+优化主数据维护场景等待加载操作。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行对账场景添加环境产业分支流程特殊处理。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。</t>
   </si>
 </sst>
 </file>
@@ -5088,6 +5150,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5097,10 +5165,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5129,12 +5197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5416,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D523"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="D515" sqref="D515"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5469,19 +5531,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5543,19 +5605,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5614,18 +5676,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5683,18 +5745,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5752,18 +5814,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5821,18 +5883,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5890,18 +5952,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5959,18 +6021,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -6028,18 +6090,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -6086,18 +6148,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -6155,18 +6217,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -6221,18 +6283,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6306,18 +6368,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6375,18 +6437,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6444,18 +6506,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6513,18 +6575,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6582,18 +6644,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="37"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6651,18 +6713,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="37"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6720,18 +6782,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="37"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6789,16 +6851,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6856,16 +6918,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6923,16 +6985,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6990,16 +7052,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -7057,16 +7119,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -7113,16 +7175,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -7180,16 +7242,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7244,16 +7306,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7333,16 +7395,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="37"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7400,16 +7462,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7467,16 +7529,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="37"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="36"/>
-      <c r="D212" s="37"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7534,18 +7596,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="37"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="37"/>
+      <c r="D219" s="34"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7603,18 +7665,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="37"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="37"/>
+      <c r="D226" s="34"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7672,18 +7734,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="37"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="37"/>
+      <c r="D233" s="34"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7741,18 +7803,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="37"/>
+      <c r="D240" s="34"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7807,18 +7869,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="37"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="37"/>
+      <c r="D247" s="34"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7876,18 +7938,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="37"/>
+      <c r="D254" s="34"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7942,18 +8004,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="37"/>
+      <c r="D261" s="34"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -8011,18 +8073,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="37"/>
+      <c r="D268" s="34"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -8077,18 +8139,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="37"/>
+      <c r="D275" s="34"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -8157,18 +8219,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="37"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="37"/>
+      <c r="D283" s="34"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -8204,18 +8266,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="37"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="37"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8273,18 +8335,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="37"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="37"/>
+      <c r="D295" s="34"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8342,18 +8404,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="37"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="37"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8408,18 +8470,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="37"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="37"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8477,18 +8539,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="37"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8546,18 +8608,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="37"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="37"/>
+      <c r="D323" s="34"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8615,18 +8677,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="37"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="37"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8662,18 +8724,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="37"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="37"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8739,18 +8801,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="37"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="37"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8808,18 +8870,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="37"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="37"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8877,18 +8939,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="37"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="37"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8946,18 +9008,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="37"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -9015,18 +9077,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="37"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="37"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -9084,18 +9146,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="37"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="37"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -9153,18 +9215,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="37"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="37"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -9222,18 +9284,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="37"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9291,18 +9353,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="37"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="37"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9360,18 +9422,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="35"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="37"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9429,18 +9491,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="36" t="s">
+      <c r="C413" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="37"/>
+      <c r="D413" s="34"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9498,18 +9560,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="37"/>
+      <c r="D420" s="34"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9567,18 +9629,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="37"/>
+      <c r="D427" s="34"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9625,18 +9687,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="37"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="37"/>
+      <c r="D433" s="34"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9716,18 +9778,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="37"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36" t="s">
+      <c r="C442" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="37"/>
+      <c r="D442" s="34"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9785,18 +9847,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="37"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="37"/>
+      <c r="D449" s="34"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9854,18 +9916,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="37"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36" t="s">
+      <c r="C456" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="37"/>
+      <c r="D456" s="34"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9923,18 +9985,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="35"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="37"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="37"/>
+      <c r="D463" s="34"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9992,18 +10054,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="35"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36" t="s">
+      <c r="C470" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="37"/>
+      <c r="D470" s="34"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -10061,18 +10123,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="35"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="37"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="C477" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="37"/>
+      <c r="D477" s="34"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -10130,18 +10192,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="35"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="37"/>
+      <c r="D484" s="34"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -10199,18 +10261,18 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="33"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="35"/>
+      <c r="B490" s="35"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="37"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="36" t="s">
+      <c r="C491" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="D491" s="37"/>
+      <c r="D491" s="34"/>
     </row>
     <row r="492" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -10268,18 +10330,18 @@
       </c>
     </row>
     <row r="497" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="33"/>
-      <c r="C497" s="34"/>
-      <c r="D497" s="35"/>
+      <c r="B497" s="35"/>
+      <c r="C497" s="36"/>
+      <c r="D497" s="37"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C498" s="36" t="s">
+      <c r="C498" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="D498" s="37"/>
+      <c r="D498" s="34"/>
     </row>
     <row r="499" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B499" s="16">
@@ -10337,18 +10399,18 @@
       </c>
     </row>
     <row r="504" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="33"/>
-      <c r="C504" s="34"/>
-      <c r="D504" s="35"/>
+      <c r="B504" s="35"/>
+      <c r="C504" s="36"/>
+      <c r="D504" s="37"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B505" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C505" s="36" t="s">
+      <c r="C505" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="D505" s="37"/>
+      <c r="D505" s="34"/>
     </row>
     <row r="506" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B506" s="16">
@@ -10406,18 +10468,18 @@
       </c>
     </row>
     <row r="511" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="33"/>
-      <c r="C511" s="34"/>
-      <c r="D511" s="35"/>
+      <c r="B511" s="35"/>
+      <c r="C511" s="36"/>
+      <c r="D511" s="37"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B512" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C512" s="36" t="s">
+      <c r="C512" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="D512" s="37"/>
+      <c r="D512" s="34"/>
     </row>
     <row r="513" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B513" s="16">
@@ -10456,160 +10518,167 @@
       <c r="B516" s="16">
         <v>45288</v>
       </c>
+      <c r="C516" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="517" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B517" s="16">
         <v>45289</v>
       </c>
+      <c r="C517" s="7" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="518" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B518" s="33"/>
-      <c r="C518" s="34"/>
-      <c r="D518" s="35"/>
+      <c r="B518" s="35"/>
+      <c r="C518" s="36"/>
+      <c r="D518" s="37"/>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B519" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C519" s="36"/>
-      <c r="D519" s="37"/>
-    </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C519" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="D519" s="34"/>
+    </row>
+    <row r="520" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B520" s="16">
         <v>45293</v>
       </c>
-    </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C520" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="D520" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B521" s="16">
         <v>45294</v>
       </c>
-    </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C521" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="D521" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="522" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B522" s="16">
         <v>45295</v>
       </c>
-    </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C522" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="D522" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B523" s="16">
         <v>45296</v>
       </c>
+      <c r="C523" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D523" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="35"/>
+      <c r="C524" s="36"/>
+      <c r="D524" s="37"/>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B525" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C525" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="D525" s="34"/>
+    </row>
+    <row r="526" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B526" s="16">
+        <v>45299</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="D526" s="8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="527" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B527" s="16">
+        <v>45300</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D527" s="8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B528" s="16">
+        <v>45301</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B529" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C529" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="16">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="35"/>
+      <c r="C531" s="36"/>
+      <c r="D531" s="37"/>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B532" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C532" s="33"/>
+      <c r="D532" s="34"/>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B533" s="16">
+        <v>45306</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="148">
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
+  <mergeCells count="152">
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
     <mergeCell ref="C519:D519"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
     <mergeCell ref="B476:D476"/>
     <mergeCell ref="C477:D477"/>
     <mergeCell ref="B469:D469"/>
@@ -10634,16 +10703,119 @@
     <mergeCell ref="C385:D385"/>
     <mergeCell ref="B377:D377"/>
     <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846B3B91-9E95-480A-9872-D6BBAFF268E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD7780-3E79-4309-9D5C-45F3298E2665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="759">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4556,6 +4556,16 @@
   </si>
   <si>
     <t>OCR发票打码。</t>
+  </si>
+  <si>
+    <t>OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试并优化主数据维护场景等待加载操作。
+对接乌沙山经信网电力运维取数场景。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5150,12 +5160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5165,10 +5169,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5197,6 +5201,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5481,7 +5491,7 @@
   <dimension ref="A1:D533"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="C529" sqref="C529"/>
+      <selection activeCell="C527" sqref="C527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5531,19 +5541,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5605,19 +5615,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5676,18 +5686,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5745,18 +5755,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5814,18 +5824,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5883,18 +5893,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5952,18 +5962,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -6021,18 +6031,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -6090,18 +6100,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -6148,18 +6158,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -6217,18 +6227,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -6283,18 +6293,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6368,18 +6378,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="34"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6437,18 +6447,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6506,18 +6516,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="37"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6575,18 +6585,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="37"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6644,18 +6654,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="37"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6713,18 +6723,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6782,18 +6792,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="34"/>
+      <c r="D134" s="37"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6851,16 +6861,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="34"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6918,16 +6928,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6985,16 +6995,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="37"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -7052,16 +7062,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="37"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -7119,16 +7129,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="37"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -7175,16 +7185,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="35"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="37"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -7242,16 +7252,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="35"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="34"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -7306,16 +7316,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7395,16 +7405,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="35"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="37"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="35"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="37"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7462,16 +7472,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="35"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="37"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="34"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7529,16 +7539,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="37"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="34"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="37"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7596,18 +7606,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="35"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="37"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="34"/>
+      <c r="D219" s="37"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7665,18 +7675,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="35"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="37"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="35"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="34"/>
+      <c r="D226" s="37"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7734,18 +7744,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="35"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="37"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="33" t="s">
+      <c r="C233" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="34"/>
+      <c r="D233" s="37"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7803,18 +7813,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="35"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="37"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="34"/>
+      <c r="D240" s="37"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7869,18 +7879,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="35"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="37"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="35"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C247" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="34"/>
+      <c r="D247" s="37"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7938,18 +7948,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="35"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="33" t="s">
+      <c r="C254" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="34"/>
+      <c r="D254" s="37"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -8004,18 +8014,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="35"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="37"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="35"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="33" t="s">
+      <c r="C261" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="34"/>
+      <c r="D261" s="37"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -8073,18 +8083,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="35"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="37"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="35"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="34"/>
+      <c r="D268" s="37"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -8139,18 +8149,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="35"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="37"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="35"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C275" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="34"/>
+      <c r="D275" s="37"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -8219,18 +8229,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="35"/>
-      <c r="C282" s="36"/>
-      <c r="D282" s="37"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="35"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="34"/>
+      <c r="D283" s="37"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -8266,18 +8276,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="35"/>
-      <c r="C287" s="36"/>
-      <c r="D287" s="37"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="35"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="34"/>
+      <c r="D288" s="37"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8335,18 +8345,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="35"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="37"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="35"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="34"/>
+      <c r="D295" s="37"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8404,18 +8414,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="35"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="37"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="35"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="33" t="s">
+      <c r="C302" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="34"/>
+      <c r="D302" s="37"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8470,18 +8480,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="35"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="37"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="35"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="34"/>
+      <c r="D309" s="37"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8539,18 +8549,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="35"/>
-      <c r="C315" s="36"/>
-      <c r="D315" s="37"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="34"/>
+      <c r="D315" s="35"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="34"/>
+      <c r="D316" s="37"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8608,18 +8618,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="35"/>
-      <c r="C322" s="36"/>
-      <c r="D322" s="37"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="35"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="33" t="s">
+      <c r="C323" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="34"/>
+      <c r="D323" s="37"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8677,18 +8687,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="35"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="37"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="34"/>
+      <c r="D329" s="35"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="33" t="s">
+      <c r="C330" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="34"/>
+      <c r="D330" s="37"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8724,18 +8734,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="35"/>
-      <c r="C334" s="36"/>
-      <c r="D334" s="37"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="35"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="33" t="s">
+      <c r="C335" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="34"/>
+      <c r="D335" s="37"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8801,18 +8811,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="35"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="37"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="34"/>
+      <c r="D342" s="35"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="33" t="s">
+      <c r="C343" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="34"/>
+      <c r="D343" s="37"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8870,18 +8880,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="35"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="37"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="34"/>
+      <c r="D349" s="35"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="33" t="s">
+      <c r="C350" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="34"/>
+      <c r="D350" s="37"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8939,18 +8949,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="35"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="37"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="35"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="33" t="s">
+      <c r="C357" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="34"/>
+      <c r="D357" s="37"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -9008,18 +9018,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="35"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="37"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="35"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="33" t="s">
+      <c r="C364" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="34"/>
+      <c r="D364" s="37"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -9077,18 +9087,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="35"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="37"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="35"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="33" t="s">
+      <c r="C371" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="34"/>
+      <c r="D371" s="37"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -9146,18 +9156,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="35"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="37"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="35"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="33" t="s">
+      <c r="C378" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="34"/>
+      <c r="D378" s="37"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -9215,18 +9225,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="35"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="37"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="35"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="33" t="s">
+      <c r="C385" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="34"/>
+      <c r="D385" s="37"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -9284,18 +9294,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="35"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="37"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="35"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="33" t="s">
+      <c r="C392" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="34"/>
+      <c r="D392" s="37"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9353,18 +9363,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="35"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="37"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="34"/>
+      <c r="D398" s="35"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="33" t="s">
+      <c r="C399" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="34"/>
+      <c r="D399" s="37"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9422,18 +9432,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="35"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="37"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="34"/>
+      <c r="D405" s="35"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9491,18 +9501,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="35"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="37"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="34"/>
+      <c r="D412" s="35"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="33" t="s">
+      <c r="C413" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="34"/>
+      <c r="D413" s="37"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9560,18 +9570,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="35"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="37"/>
+      <c r="B419" s="33"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="33" t="s">
+      <c r="C420" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="34"/>
+      <c r="D420" s="37"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9629,18 +9639,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="35"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="37"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="33" t="s">
+      <c r="C427" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="34"/>
+      <c r="D427" s="37"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9687,18 +9697,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="35"/>
-      <c r="C432" s="36"/>
-      <c r="D432" s="37"/>
+      <c r="B432" s="33"/>
+      <c r="C432" s="34"/>
+      <c r="D432" s="35"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="33" t="s">
+      <c r="C433" s="36" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="34"/>
+      <c r="D433" s="37"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9778,18 +9788,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="35"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="37"/>
+      <c r="B441" s="33"/>
+      <c r="C441" s="34"/>
+      <c r="D441" s="35"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="33" t="s">
+      <c r="C442" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="34"/>
+      <c r="D442" s="37"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9847,18 +9857,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="35"/>
-      <c r="C448" s="36"/>
-      <c r="D448" s="37"/>
+      <c r="B448" s="33"/>
+      <c r="C448" s="34"/>
+      <c r="D448" s="35"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="34"/>
+      <c r="D449" s="37"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9916,18 +9926,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="35"/>
-      <c r="C455" s="36"/>
-      <c r="D455" s="37"/>
+      <c r="B455" s="33"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="35"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="33" t="s">
+      <c r="C456" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="34"/>
+      <c r="D456" s="37"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9985,18 +9995,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="35"/>
-      <c r="C462" s="36"/>
-      <c r="D462" s="37"/>
+      <c r="B462" s="33"/>
+      <c r="C462" s="34"/>
+      <c r="D462" s="35"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="33" t="s">
+      <c r="C463" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="34"/>
+      <c r="D463" s="37"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -10054,18 +10064,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="35"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="37"/>
+      <c r="B469" s="33"/>
+      <c r="C469" s="34"/>
+      <c r="D469" s="35"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="33" t="s">
+      <c r="C470" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="34"/>
+      <c r="D470" s="37"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -10123,18 +10133,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="35"/>
-      <c r="C476" s="36"/>
-      <c r="D476" s="37"/>
+      <c r="B476" s="33"/>
+      <c r="C476" s="34"/>
+      <c r="D476" s="35"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="33" t="s">
+      <c r="C477" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="34"/>
+      <c r="D477" s="37"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -10192,18 +10202,18 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="35"/>
-      <c r="C483" s="36"/>
-      <c r="D483" s="37"/>
+      <c r="B483" s="33"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="35"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="33" t="s">
+      <c r="C484" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="34"/>
+      <c r="D484" s="37"/>
     </row>
     <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
@@ -10261,18 +10271,18 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="35"/>
-      <c r="C490" s="36"/>
-      <c r="D490" s="37"/>
+      <c r="B490" s="33"/>
+      <c r="C490" s="34"/>
+      <c r="D490" s="35"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="33" t="s">
+      <c r="C491" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D491" s="34"/>
+      <c r="D491" s="37"/>
     </row>
     <row r="492" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -10330,18 +10340,18 @@
       </c>
     </row>
     <row r="497" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="35"/>
-      <c r="C497" s="36"/>
-      <c r="D497" s="37"/>
+      <c r="B497" s="33"/>
+      <c r="C497" s="34"/>
+      <c r="D497" s="35"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C498" s="33" t="s">
+      <c r="C498" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="D498" s="34"/>
+      <c r="D498" s="37"/>
     </row>
     <row r="499" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B499" s="16">
@@ -10399,18 +10409,18 @@
       </c>
     </row>
     <row r="504" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="35"/>
-      <c r="C504" s="36"/>
-      <c r="D504" s="37"/>
+      <c r="B504" s="33"/>
+      <c r="C504" s="34"/>
+      <c r="D504" s="35"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B505" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C505" s="33" t="s">
+      <c r="C505" s="36" t="s">
         <v>731</v>
       </c>
-      <c r="D505" s="34"/>
+      <c r="D505" s="37"/>
     </row>
     <row r="506" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B506" s="16">
@@ -10468,18 +10478,18 @@
       </c>
     </row>
     <row r="511" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="35"/>
-      <c r="C511" s="36"/>
-      <c r="D511" s="37"/>
+      <c r="B511" s="33"/>
+      <c r="C511" s="34"/>
+      <c r="D511" s="35"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B512" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C512" s="33" t="s">
+      <c r="C512" s="36" t="s">
         <v>741</v>
       </c>
-      <c r="D512" s="34"/>
+      <c r="D512" s="37"/>
     </row>
     <row r="513" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B513" s="16">
@@ -10531,18 +10541,18 @@
       </c>
     </row>
     <row r="518" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B518" s="35"/>
-      <c r="C518" s="36"/>
-      <c r="D518" s="37"/>
+      <c r="B518" s="33"/>
+      <c r="C518" s="34"/>
+      <c r="D518" s="35"/>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B519" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C519" s="33" t="s">
+      <c r="C519" s="36" t="s">
         <v>746</v>
       </c>
-      <c r="D519" s="34"/>
+      <c r="D519" s="37"/>
     </row>
     <row r="520" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B520" s="16">
@@ -10589,18 +10599,18 @@
       </c>
     </row>
     <row r="524" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B524" s="35"/>
-      <c r="C524" s="36"/>
-      <c r="D524" s="37"/>
+      <c r="B524" s="33"/>
+      <c r="C524" s="34"/>
+      <c r="D524" s="35"/>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B525" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C525" s="33" t="s">
+      <c r="C525" s="36" t="s">
         <v>746</v>
       </c>
-      <c r="D525" s="34"/>
+      <c r="D525" s="37"/>
     </row>
     <row r="526" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B526" s="16">
@@ -10621,7 +10631,7 @@
         <v>753</v>
       </c>
       <c r="D527" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="528" spans="2:4" ht="57" x14ac:dyDescent="0.2">
@@ -10631,6 +10641,9 @@
       <c r="C528" s="7" t="s">
         <v>754</v>
       </c>
+      <c r="D528" s="8" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="529" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B529" s="16">
@@ -10639,23 +10652,32 @@
       <c r="C529" s="7" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="530" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D529" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B530" s="16">
         <v>45303</v>
       </c>
+      <c r="C530" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D530" s="8" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="531" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B531" s="35"/>
-      <c r="C531" s="36"/>
-      <c r="D531" s="37"/>
+      <c r="B531" s="33"/>
+      <c r="C531" s="34"/>
+      <c r="D531" s="35"/>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B532" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C532" s="33"/>
-      <c r="D532" s="34"/>
+      <c r="C532" s="36"/>
+      <c r="D532" s="37"/>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B533" s="16">
@@ -10664,38 +10686,102 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C449:D449"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="C371:D371"/>
@@ -10720,102 +10806,38 @@
     <mergeCell ref="C323:D323"/>
     <mergeCell ref="B432:D432"/>
     <mergeCell ref="B441:D441"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD7780-3E79-4309-9D5C-45F3298E2665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67166C-4CD4-44F9-8564-13AAFC405555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="764">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4565,6 +4565,34 @@
     <t>测试并优化主数据维护场景等待加载操作。
 对接乌沙山经信网电力运维取数场景。
 OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+协调乌沙山vpn情况。
+测试新的vpn在云平台上是否可以正常运行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+调整乌沙山云平台，尝试连接vpn。
+开发新的vpn相关的脚本流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整乌沙山云平台，尝试连接vpn。
+远程连接乌沙山电脑，配置环境，安装机器人。
+上线并测试乌沙山经信网电力运维取数离线场景。
+薪酬分发场景配置新公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理新的vpn重连操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看乌沙山经信网电力运维取数离线场景一晚上数据取数情况，处理异常。
+处理新的vpn重连操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5175,6 +5203,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5201,12 +5235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5488,10 +5516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="C527" sqref="C527"/>
+    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="D534" sqref="D534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5541,9 +5569,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5615,9 +5643,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5686,9 +5714,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -9440,10 +9468,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -10679,13 +10707,197 @@
       <c r="C532" s="36"/>
       <c r="D532" s="37"/>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B533" s="16">
         <v>45306</v>
       </c>
+      <c r="C533" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="D533" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B534" s="16">
+        <v>45307</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D534" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B535" s="16">
+        <v>45308</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536" s="16">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="16">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B538" s="33"/>
+      <c r="C538" s="34"/>
+      <c r="D538" s="35"/>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B539" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C539" s="36"/>
+      <c r="D539" s="37"/>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B540" s="16">
+        <v>45313</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="154">
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="C539:D539"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B181:D181"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="B518:D518"/>
     <mergeCell ref="B161:D161"/>
@@ -10708,136 +10920,6 @@
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="B260:D260"/>
     <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67166C-4CD4-44F9-8564-13AAFC405555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D09E80A-FE8C-48DA-A5A6-DB4E12EB3C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="766">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4587,12 +4587,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>处理新的vpn重连操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看乌沙山经信网电力运维取数离线场景一晚上数据取数情况，处理异常。
 处理新的vpn重连操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看乌沙山经信网电力运维取数离线场景一晚上数据取数情况。
+处理新的vpn重连操作。
+OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌沙山电力运维取数场景调整上线。OCR打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5519,7 +5529,7 @@
   <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="D534" sqref="D534"/>
+      <selection activeCell="D537" sqref="D537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10704,7 +10714,9 @@
       <c r="B532" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C532" s="36"/>
+      <c r="C532" s="36" t="s">
+        <v>764</v>
+      </c>
       <c r="D532" s="37"/>
     </row>
     <row r="533" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -10726,25 +10738,40 @@
         <v>761</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B535" s="16">
         <v>45308</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="D535" s="8" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B536" s="16">
         <v>45309</v>
       </c>
+      <c r="C536" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D536" s="8" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="537" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B537" s="16">
         <v>45310</v>
+      </c>
+      <c r="C537" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D537" s="8" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="538" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10785,6 +10812,7 @@
     <mergeCell ref="C484:D484"/>
     <mergeCell ref="B476:D476"/>
     <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B518:D518"/>
     <mergeCell ref="B469:D469"/>
     <mergeCell ref="C470:D470"/>
     <mergeCell ref="B462:D462"/>
@@ -10825,6 +10853,14 @@
     <mergeCell ref="B322:D322"/>
     <mergeCell ref="C323:D323"/>
     <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B441:D441"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B13:D13"/>
@@ -10849,12 +10885,6 @@
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
     <mergeCell ref="C433:D433"/>
     <mergeCell ref="B426:D426"/>
     <mergeCell ref="C427:D427"/>
@@ -10871,12 +10901,17 @@
     <mergeCell ref="B405:D405"/>
     <mergeCell ref="C406:D406"/>
     <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
     <mergeCell ref="C295:D295"/>
     <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B91:D91"/>
     <mergeCell ref="C261:D261"/>
     <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B161:D161"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="B68:D68"/>
@@ -10887,20 +10922,8 @@
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B181:D181"/>
     <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B294:D294"/>
     <mergeCell ref="C134:D134"/>
     <mergeCell ref="B147:D147"/>
     <mergeCell ref="C141:D141"/>
@@ -10916,10 +10939,14 @@
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="B218:D218"/>
     <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D09E80A-FE8C-48DA-A5A6-DB4E12EB3C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9670C69-AEBE-4690-AA01-542B9286D085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="767">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4603,6 +4603,11 @@
   </si>
   <si>
     <t>OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+优化pdf转图片。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5213,12 +5218,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5245,6 +5244,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5529,7 +5534,7 @@
   <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="D537" sqref="D537"/>
+      <selection activeCell="C537" sqref="C537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5579,9 +5584,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5653,9 +5658,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5724,9 +5729,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -9478,10 +9483,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -10763,12 +10768,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="537" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B537" s="16">
         <v>45310</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D537" s="8" t="s">
         <v>765</v>
@@ -10793,26 +10798,116 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="B538:D538"/>
-    <mergeCell ref="C539:D539"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B469:D469"/>
     <mergeCell ref="C470:D470"/>
     <mergeCell ref="B462:D462"/>
@@ -10837,116 +10932,26 @@
     <mergeCell ref="C378:D378"/>
     <mergeCell ref="C442:D442"/>
     <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="C539:D539"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9670C69-AEBE-4690-AA01-542B9286D085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1C372-0334-48BC-99FF-60E08E3ABBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="768">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4608,6 +4608,12 @@
   <si>
     <t>OCR发票打码。
 优化pdf转图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+蓝光库直接入库场景与蓝光库订单入库场景更新配置表。
+公共组件添加税收完税证明pdf解析操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5218,6 +5224,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5244,12 +5256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5531,10 +5537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D540"/>
+  <dimension ref="A1:D547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="C537" sqref="C537"/>
+    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
+      <selection activeCell="C541" sqref="C541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5584,9 +5590,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5658,9 +5664,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5729,9 +5735,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -9483,10 +9489,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -10776,7 +10782,7 @@
         <v>766</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="538" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10795,9 +10801,184 @@
       <c r="B540" s="16">
         <v>45313</v>
       </c>
+      <c r="C540" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B541" s="16">
+        <v>45314</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B542" s="16">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B543" s="16">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B544" s="16">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="33"/>
+      <c r="C545" s="34"/>
+      <c r="D545" s="35"/>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B546" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C546" s="36"/>
+      <c r="D546" s="37"/>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B547" s="16">
+        <v>45320</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="154">
+  <mergeCells count="156">
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B545:D545"/>
+    <mergeCell ref="C546:D546"/>
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="C539:D539"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
     <mergeCell ref="B294:D294"/>
     <mergeCell ref="C134:D134"/>
     <mergeCell ref="B147:D147"/>
@@ -10822,136 +11003,6 @@
     <mergeCell ref="B232:D232"/>
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B538:D538"/>
-    <mergeCell ref="C539:D539"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1C372-0334-48BC-99FF-60E08E3ABBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82218F7C-2DF7-4A14-A5F9-B3FBB1D44E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="769">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4613,7 +4613,13 @@
   <si>
     <t>OCR发票打码。
 蓝光库直接入库场景与蓝光库订单入库场景更新配置表。
+优化公共组件解析pdf的方法。
 公共组件添加税收完税证明pdf解析操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据维护场景处理新增时下拉选项操作之后需要点击一下其他地方的操作。
+优化公共组件解析pdf的方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5540,7 +5546,7 @@
   <dimension ref="A1:D547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
-      <selection activeCell="C541" sqref="C541"/>
+      <selection activeCell="C543" sqref="C543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10805,7 +10811,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="541" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B541" s="16">
         <v>45314</v>
       </c>
@@ -10813,9 +10819,12 @@
         <v>767</v>
       </c>
     </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B542" s="16">
         <v>45315</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.2">

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82218F7C-2DF7-4A14-A5F9-B3FBB1D44E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2B818-4D5F-4318-900F-367AF433C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="772">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4618,8 +4618,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主数据维护场景处理新增时下拉选项操作之后需要点击一下其他地方的操作。
-优化公共组件解析pdf的方法。</t>
+    <t>主数据维护场景处理新增时下拉选项操作之后需要点击一下其他地方的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理优化模板匹配的公共组件方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+主数据维护场景处理新增时下拉选项操作之后需要点击一下其他地方的操作。
+优化公共组件解析pdf的方法。
+整理优化模板匹配的公共组件方法。
+修改新能源场景公司配置并上线测试。
+协助运行江西主数据维护场景部门变更操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+整理优化模板匹配的公共组件方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10818,18 +10835,27 @@
       <c r="C541" s="7" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="542" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D541" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B542" s="16">
         <v>45315</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+      <c r="D542" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B543" s="16">
         <v>45316</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="544" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2B818-4D5F-4318-900F-367AF433C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A088E6-8AFE-4EDE-9A48-1DB1A2D1C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="774">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4618,14 +4618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主数据维护场景处理新增时下拉选项操作之后需要点击一下其他地方的操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理优化模板匹配的公共组件方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OCR发票打码。
 主数据维护场景处理新增时下拉选项操作之后需要点击一下其他地方的操作。
 优化公共组件解析pdf的方法。
@@ -4637,6 +4629,28 @@
   <si>
     <t>OCR发票打码。
 整理优化模板匹配的公共组件方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+整理优化模板匹配的公共组件方法。
+优化截图公共组件。
+查看多屏幕导致的截图问题。
+实现多屏幕截图匹配的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+主数据维护场景处理新增时下拉选项操作之后需要点击一下其他地方的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+实现多屏幕截图匹配的方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5247,12 +5261,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5279,6 +5287,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5562,8 +5576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
-      <selection activeCell="C543" sqref="C543"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="D543" sqref="D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5613,9 +5627,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5687,9 +5701,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5758,9 +5772,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -9512,10 +9526,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -10827,6 +10841,9 @@
       <c r="C540" s="7" t="s">
         <v>739</v>
       </c>
+      <c r="D540" s="8" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="541" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B541" s="16">
@@ -10836,7 +10853,7 @@
         <v>767</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="542" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
@@ -10844,18 +10861,21 @@
         <v>45315</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D542" s="8" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="543" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B543" s="16">
         <v>45316</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
+      </c>
+      <c r="D543" s="8" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="544" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10882,34 +10902,110 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B545:D545"/>
-    <mergeCell ref="C546:D546"/>
-    <mergeCell ref="B538:D538"/>
-    <mergeCell ref="C539:D539"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="C275:D275"/>
     <mergeCell ref="C254:D254"/>
     <mergeCell ref="B188:D188"/>
@@ -10934,110 +11030,34 @@
     <mergeCell ref="C413:D413"/>
     <mergeCell ref="B448:D448"/>
     <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B545:D545"/>
+    <mergeCell ref="C546:D546"/>
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="C539:D539"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A088E6-8AFE-4EDE-9A48-1DB1A2D1C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D00ED4-D805-4AD8-A7CB-7D17C366BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="777">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4651,6 +4651,23 @@
   <si>
     <t>OCR发票打码。
 实现多屏幕截图匹配的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR增值税发票打码标注工作。对公共组件进行迭代升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+实现多屏幕截图匹配的方法。
+实现不同分辨率情况下的截图问题。
+测试多屏幕时截图是否准确且完整。
+优化excel解析的公共组件，使其可以解析多行合并单元格表头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。
+继续对剩余公共组件进行独立化升级的评估与设计，对公共组件进行迭代升级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5261,6 +5278,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5287,12 +5310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5576,8 +5593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="D543" sqref="D543"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5627,9 +5644,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5701,9 +5718,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5772,9 +5789,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -9526,10 +9543,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -10831,7 +10848,9 @@
       <c r="B539" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C539" s="36"/>
+      <c r="C539" s="36" t="s">
+        <v>774</v>
+      </c>
       <c r="D539" s="37"/>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.2">
@@ -10878,9 +10897,15 @@
         <v>773</v>
       </c>
     </row>
-    <row r="544" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B544" s="16">
         <v>45317</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D544" s="8" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="545" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10902,28 +10927,116 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B545:D545"/>
+    <mergeCell ref="C546:D546"/>
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="C539:D539"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B267:D267"/>
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="B315:D315"/>
     <mergeCell ref="B260:D260"/>
@@ -10948,116 +11061,28 @@
     <mergeCell ref="B225:D225"/>
     <mergeCell ref="B294:D294"/>
     <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B545:D545"/>
-    <mergeCell ref="C546:D546"/>
-    <mergeCell ref="B538:D538"/>
-    <mergeCell ref="C539:D539"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D00ED4-D805-4AD8-A7CB-7D17C366BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A161AA-FDC5-4814-BE6D-B9BF8F293A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="778">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4668,6 +4668,10 @@
   <si>
     <t>OCR发票打码。
 继续对剩余公共组件进行独立化升级的评估与设计，对公共组件进行迭代升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR增值税发票打码标注工作。对公共组件进行迭代升级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5278,12 +5282,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5310,6 +5308,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5591,10 +5595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D547"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="C544" sqref="C544"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="C555" sqref="C555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5644,9 +5648,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5718,9 +5722,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5789,9 +5793,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -9543,10 +9547,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -10917,7 +10921,9 @@
       <c r="B546" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C546" s="36"/>
+      <c r="C546" s="36" t="s">
+        <v>777</v>
+      </c>
       <c r="D546" s="37"/>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.2">
@@ -10925,36 +10931,153 @@
         <v>45320</v>
       </c>
     </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B548" s="16">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B549" s="16">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B550" s="16">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="16">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="33"/>
+      <c r="C552" s="34"/>
+      <c r="D552" s="35"/>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B553" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C553" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="D553" s="37"/>
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B554" s="16">
+        <v>45326</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B545:D545"/>
-    <mergeCell ref="C546:D546"/>
-    <mergeCell ref="B538:D538"/>
-    <mergeCell ref="C539:D539"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
+  <mergeCells count="158">
+    <mergeCell ref="B552:D552"/>
+    <mergeCell ref="C553:D553"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="C275:D275"/>
     <mergeCell ref="C254:D254"/>
     <mergeCell ref="B188:D188"/>
@@ -10979,110 +11102,34 @@
     <mergeCell ref="C413:D413"/>
     <mergeCell ref="B448:D448"/>
     <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B545:D545"/>
+    <mergeCell ref="C546:D546"/>
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="C539:D539"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
+++ b/personal_tool/work_tool/工作报告填写器/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work_tool\工作报告填写器\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A161AA-FDC5-4814-BE6D-B9BF8F293A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0348E72B-202B-4CCA-B298-9D0D411938BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="780">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4672,6 +4672,18 @@
   </si>
   <si>
     <t>OCR增值税发票打码标注工作。对公共组件进行迭代升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用银行对账历史的各个版本流水，测试excel解析方法。
+处理excel解析方法无法解析xlsx的bug，重新实现新的excel解析方法。
+调试新的脚本框架代码。
+修改所有脚本中的信号调用方法。
+测试新的控制台请求公共组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR发票打码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5282,6 +5294,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5308,12 +5326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5598,7 +5610,7 @@
   <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="C555" sqref="C555"/>
+      <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5648,9 +5660,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5722,9 +5734,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5793,9 +5805,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -9547,10 +9559,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -10926,9 +10938,15 @@
       </c>
       <c r="D546" s="37"/>
     </row>
-    <row r="547" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B547" s="16">
         <v>45320</v>
+      </c>
+      <c r="C547" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D547" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.2">
@@ -10960,9 +10978,7 @@
       <c r="B553" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C553" s="36" t="s">
-        <v>777</v>
-      </c>
+      <c r="C553" s="36"/>
       <c r="D553" s="37"/>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.2">
@@ -10972,6 +10988,140 @@
     </row>
   </sheetData>
   <mergeCells count="158">
+    <mergeCell ref="B524:D524"/>
+    <mergeCell ref="C525:D525"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B545:D545"/>
+    <mergeCell ref="C546:D546"/>
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="C539:D539"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="B511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B518:D518"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C134:D134"/>
     <mergeCell ref="B552:D552"/>
     <mergeCell ref="C553:D553"/>
     <mergeCell ref="B147:D147"/>
@@ -10996,140 +11146,6 @@
     <mergeCell ref="B232:D232"/>
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B518:D518"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B524:D524"/>
-    <mergeCell ref="C525:D525"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B545:D545"/>
-    <mergeCell ref="C546:D546"/>
-    <mergeCell ref="B538:D538"/>
-    <mergeCell ref="C539:D539"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="B511:D511"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="C505:D505"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
